--- a/biology/Zoologie/Chrysopaa_sternosignata/Chrysopaa_sternosignata.xlsx
+++ b/biology/Zoologie/Chrysopaa_sternosignata/Chrysopaa_sternosignata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopaa sternosignata, unique représentant du genre Chrysopaa, est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopaa sternosignata, unique représentant du genre Chrysopaa, est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 dans le sud-est de l'Afghanistan entre 1 800 et 2 000 m d'altitude ;
 au Pakistan dans le nord du Baloutchistan, dans les régions tribales, au Khyber Pakhtunkhwa, au Gilgit-Baltistan et en Azad Cachemire.
 en Inde au Jammu-et-Cachemire.</t>
@@ -544,7 +558,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ohler &amp; Dubois, 2006 : Phylogenetic relationships and generic taxonomy of the tribe Paini (Amphibia, Anura, Ranidae, Dicroglossinae) with diagnoses of two new genera. Zoosystema, Paris, vol. 28, p. 769-784 (texte intégral).
 Murray, 1885 : A new frog (Rana sternosignata) from Sind. Annals and Magazine of Natural History, sér. 5, vol. 16, p. 120-121 (texte intégral).</t>
